--- a/zk.xlsx
+++ b/zk.xlsx
@@ -135,9 +135,6 @@
     <t>!1086620461!</t>
   </si>
   <si>
-    <t>nicht nach 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kugelschreiber </t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>5 x 5</t>
+  </si>
+  <si>
+    <t>[nicht nach 2023]</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -614,7 +614,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -626,7 +626,7 @@
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -655,25 +655,25 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3">
         <v>9</v>
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>21</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -743,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
         <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>2023</v>
@@ -778,13 +778,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
@@ -798,13 +798,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>2023</v>
@@ -813,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
         <v>61</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -867,7 +867,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>

--- a/zk.xlsx
+++ b/zk.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Jahr normiert</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>[nicht nach 2023]</t>
+  </si>
+  <si>
+    <t>Verlagskürzel</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -557,9 +560,10 @@
     <col min="14" max="14" width="33.25" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
     <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -611,8 +615,11 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -653,7 +660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -688,7 +695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -723,7 +730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -758,7 +765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -796,7 +803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>55</v>
       </c>
